--- a/src/Sources/FiyatListesi.xlsx
+++ b/src/Sources/FiyatListesi.xlsx
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>

--- a/src/Sources/FiyatListesi.xlsx
+++ b/src/Sources/FiyatListesi.xlsx
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>

--- a/src/Sources/FiyatListesi.xlsx
+++ b/src/Sources/FiyatListesi.xlsx
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>0</v>

--- a/src/Sources/FiyatListesi.xlsx
+++ b/src/Sources/FiyatListesi.xlsx
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D2" s="8" t="n">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>0</v>

--- a/src/Sources/FiyatListesi.xlsx
+++ b/src/Sources/FiyatListesi.xlsx
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D2" s="8" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>0</v>

--- a/src/Sources/FiyatListesi.xlsx
+++ b/src/Sources/FiyatListesi.xlsx
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D2" s="8" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>0</v>
